--- a/backend/src/main/resources/templates/PO_Template.xlsx
+++ b/backend/src/main/resources/templates/PO_Template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>발 주 서</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>참고사항</t>
+  </si>
+  <si>
+    <t>{{REMARKS}}</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +797,9 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" ht="60.0" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -802,17 +807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.5905511811023623" right="0.5905511811023623" top="0.5905511811023623"/>
